--- a/DownloadFiles/facList.xlsx
+++ b/DownloadFiles/facList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beste\Documents\GitHub\RPA\DownloadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a30ddd1064f63/Documents/GitHub/RPA/DownloadFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872F564F-6D05-4B60-95EF-61E5541C7650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{872F564F-6D05-4B60-95EF-61E5541C7650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{24BF5E4E-FED8-44B4-B353-A1A0EC6D1892}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B4D62B3-A24A-4157-8ADB-5B21106979DB}"/>
   </bookViews>
@@ -4221,7 +4221,7 @@
   <dimension ref="A1:O286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24"/>
